--- a/data/sd_stadiums.xlsx
+++ b/data/sd_stadiums.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,16 +471,6 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>GeoLat</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>GeoLong</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>Type</t>
         </is>
       </c>
@@ -517,13 +507,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>42.773758</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-78.78683700000001</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -561,13 +545,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>25.958056</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-80.238889</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -605,13 +583,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>40.813528</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-74.074361</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -649,13 +621,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>42.090866</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-71.26424400000001</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -693,13 +659,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>39.095309</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-84.516003</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -737,13 +697,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>41.506111</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-81.699444</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -781,13 +735,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>39.278056</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-76.622778</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -825,13 +773,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>40.446667</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-80.015833</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -869,13 +811,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>39.760056</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-86.16380599999999</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>RetractableDome</t>
         </is>
@@ -913,13 +849,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>30.323889</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-81.6375</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -957,13 +887,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>29.684722</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-95.410833</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>RetractableDome</t>
         </is>
@@ -1001,13 +925,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>36.166389</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-86.771389</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -1045,13 +963,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>39.743889</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-105.020097</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -1089,13 +1001,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>32.783188</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-117.119439</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -1133,13 +1039,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>39.048889</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-94.483889</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -1177,13 +1077,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>37.751613</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-122.200509</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -1221,13 +1115,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>32.747778</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-97.092778</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>RetractableDome</t>
         </is>
@@ -1265,13 +1153,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>39.900833</v>
-      </c>
-      <c r="I19" t="n">
-        <v>-75.167469</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -1309,13 +1191,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>38.907778</v>
-      </c>
-      <c r="I20" t="n">
-        <v>-76.86444400000001</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -1353,13 +1229,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>41.86232</v>
-      </c>
-      <c r="I21" t="n">
-        <v>-87.616699</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -1397,13 +1267,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>42.340021</v>
-      </c>
-      <c r="I22" t="n">
-        <v>-83.045556</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Dome</t>
         </is>
@@ -1441,13 +1305,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>44.501389</v>
-      </c>
-      <c r="I23" t="n">
-        <v>-88.06222200000001</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -1485,13 +1343,7 @@
           <t>Dome</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>44.976</v>
-      </c>
-      <c r="I24" t="n">
-        <v>-93.22499999999999</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Dome</t>
         </is>
@@ -1529,13 +1381,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>27.975833</v>
-      </c>
-      <c r="I25" t="n">
-        <v>-82.503333</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -1573,13 +1419,7 @@
           <t>Dome</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>33.757614</v>
-      </c>
-      <c r="I26" t="n">
-        <v>-84.400972</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Dome</t>
         </is>
@@ -1617,13 +1457,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>35.225833</v>
-      </c>
-      <c r="I27" t="n">
-        <v>-80.852778</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -1661,13 +1495,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>29.950833</v>
-      </c>
-      <c r="I28" t="n">
-        <v>-90.08111100000001</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Dome</t>
         </is>
@@ -1705,13 +1533,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>37.404108</v>
-      </c>
-      <c r="I29" t="n">
-        <v>-121.970274</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -1749,13 +1571,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>33.528</v>
-      </c>
-      <c r="I30" t="n">
-        <v>-112.263036</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>RetractableDome</t>
         </is>
@@ -1793,13 +1609,7 @@
           <t>Dome</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>38.632975</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-90.188547</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Dome</t>
         </is>
@@ -1837,13 +1647,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>47.5952</v>
-      </c>
-      <c r="I32" t="n">
-        <v>-122.331625</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -1877,13 +1681,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>51.555833</v>
-      </c>
-      <c r="I33" t="n">
-        <v>-0.279722</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Retractable_dome</t>
         </is>
@@ -1917,13 +1715,7 @@
           <t>Dome</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>43.64159</v>
-      </c>
-      <c r="I34" t="n">
-        <v>-79.390028</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Retractable_dome</t>
         </is>
@@ -1961,13 +1753,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v>40.819822</v>
-      </c>
-      <c r="I35" t="n">
-        <v>-81.398177</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -2005,13 +1791,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H36" t="n">
-        <v>44.976</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-93.22499999999999</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -2049,13 +1829,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v>37.403</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-121.970274</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -2093,13 +1867,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v>34.014167</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-118.287778</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -2137,13 +1905,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v>28.539062</v>
-      </c>
-      <c r="I39" t="n">
-        <v>-81.402749</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -2177,13 +1939,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H40" t="n">
-        <v>51.455936</v>
-      </c>
-      <c r="I40" t="n">
-        <v>-0.341516</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -2217,13 +1973,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H41" t="n">
-        <v>19.302861</v>
-      </c>
-      <c r="I41" t="n">
-        <v>-99.15052799999999</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -2261,13 +2011,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H42" t="n">
-        <v>44.974288</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-93.258</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Dome</t>
         </is>
@@ -2305,13 +2049,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H43" t="n">
-        <v>33.858663</v>
-      </c>
-      <c r="I43" t="n">
-        <v>-118.256666</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -2349,13 +2087,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H44" t="n">
-        <v>33.755556</v>
-      </c>
-      <c r="I44" t="n">
-        <v>-84.401</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>RetractableDome</t>
         </is>
@@ -2393,13 +2125,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H45" t="n">
-        <v>40.819906</v>
-      </c>
-      <c r="I45" t="n">
-        <v>-81.398157</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -2429,13 +2155,7 @@
         <v>62062</v>
       </c>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
-        <v>51.604444</v>
-      </c>
-      <c r="I46" t="n">
-        <v>-0.066389</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -2473,13 +2193,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H47" t="n">
-        <v>21.372647</v>
-      </c>
-      <c r="I47" t="n">
-        <v>-157.929821</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -2513,13 +2227,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H48" t="n">
-        <v>49.807778</v>
-      </c>
-      <c r="I48" t="n">
-        <v>-97.143056</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
@@ -2557,13 +2265,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H49" t="n">
-        <v>36.090833</v>
-      </c>
-      <c r="I49" t="n">
-        <v>-115.183611</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Dome</t>
         </is>
@@ -2601,13 +2303,7 @@
           <t>Artificial</t>
         </is>
       </c>
-      <c r="H50" t="n">
-        <v>33.95345</v>
-      </c>
-      <c r="I50" t="n">
-        <v>-118.3392</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Dome</t>
         </is>
@@ -2641,13 +2337,7 @@
           <t>Grass</t>
         </is>
       </c>
-      <c r="H51" t="n">
-        <v>48.218889</v>
-      </c>
-      <c r="I51" t="n">
-        <v>11.624722</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Outdoor</t>
         </is>
